--- a/Data/EC/NIT-9003040999.xlsx
+++ b/Data/EC/NIT-9003040999.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA57251E-117A-40C0-91D4-EA7BE2F9DABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4472B7E-E80D-4A51-81AE-FFC9072F490F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B9685C14-7F2E-4850-A05D-44A971A38E59}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{62A60CBA-F065-4D96-9E95-7D213B50EF5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -62,6 +62,21 @@
     <t>EMPRESA DE SERVICIOS TEMPORALES NASER ASESORES E.U.</t>
   </si>
   <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>12602950</t>
+  </si>
+  <si>
+    <t>EUDIN HERNANDEZ MORALES</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>PE</t>
   </si>
   <si>
@@ -71,40 +86,37 @@
     <t>ABRAHAM JOSE GIL HERNANDEZ</t>
   </si>
   <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
     <t>2011</t>
   </si>
   <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
     <t>1082471193</t>
   </si>
   <si>
     <t>JOSE LUIS CARRASCAL MACHADO</t>
   </si>
   <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
     <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -518,7 +530,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEE9392E-9599-FA28-0AF5-8B3912519FFA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AD87749-CF3D-F9EA-D6BD-F1A7C5FA6510}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -869,8 +881,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F45B79A-7182-4073-B986-AC1DDB2CBC3F}">
-  <dimension ref="B2:J30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A52246-E106-42C7-8592-D1202FDED8C3}">
+  <dimension ref="B2:J32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -894,7 +906,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -939,7 +951,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -971,12 +983,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>277104</v>
+        <v>347328</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -987,17 +999,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C13" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F13" s="5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1024,13 +1036,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1047,7 +1059,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>7022</v>
+        <v>35112</v>
       </c>
       <c r="G16" s="18">
         <v>877803</v>
@@ -1081,16 +1093,16 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F18" s="18">
         <v>35112</v>
@@ -1104,16 +1116,16 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F19" s="18">
         <v>35112</v>
@@ -1127,22 +1139,22 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>15</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F20" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G20" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1150,22 +1162,22 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>15</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F21" s="18">
-        <v>36341</v>
+        <v>7022</v>
       </c>
       <c r="G21" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1173,19 +1185,19 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F22" s="18">
-        <v>36341</v>
+        <v>19382</v>
       </c>
       <c r="G22" s="18">
         <v>908526</v>
@@ -1196,16 +1208,16 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F23" s="18">
         <v>36341</v>
@@ -1218,56 +1230,102 @@
       <c r="J23" s="20"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B24" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="24">
-        <v>19382</v>
-      </c>
-      <c r="G24" s="24">
+      <c r="B24" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G24" s="18">
         <v>908526</v>
       </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="32"/>
-      <c r="H29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="32"/>
-      <c r="H30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="20"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B25" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G25" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B26" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="24">
+        <v>36341</v>
+      </c>
+      <c r="G26" s="24">
+        <v>908526</v>
+      </c>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="26"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="32"/>
+      <c r="H31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="32"/>
+      <c r="H32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H31:J31"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9003040999.xlsx
+++ b/Data/EC/NIT-9003040999.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4472B7E-E80D-4A51-81AE-FFC9072F490F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFF81D7A-2755-46FC-A882-CD5B62888A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{62A60CBA-F065-4D96-9E95-7D213B50EF5D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{735E5490-73D3-4A81-A2A1-6AE6506F4765}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -62,61 +62,49 @@
     <t>EMPRESA DE SERVICIOS TEMPORALES NASER ASESORES E.U.</t>
   </si>
   <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>800176329091986</t>
+  </si>
+  <si>
+    <t>ABRAHAM JOSE GIL HERNANDEZ</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
     <t>CC</t>
   </si>
   <si>
-    <t>12602950</t>
-  </si>
-  <si>
-    <t>EUDIN HERNANDEZ MORALES</t>
-  </si>
-  <si>
-    <t>2507</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>800176329091986</t>
-  </si>
-  <si>
-    <t>ABRAHAM JOSE GIL HERNANDEZ</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
     <t>1082471193</t>
   </si>
   <si>
     <t>JOSE LUIS CARRASCAL MACHADO</t>
   </si>
   <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
     <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -215,22 +203,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -430,23 +418,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -474,10 +462,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -530,7 +518,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AD87749-CF3D-F9EA-D6BD-F1A7C5FA6510}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62A8BC96-8E07-9602-F57A-8E3774C0146C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -881,8 +869,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A52246-E106-42C7-8592-D1202FDED8C3}">
-  <dimension ref="B2:J32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85523A4F-BBC4-462B-AAE5-5D7DC2BFEEC4}">
+  <dimension ref="B2:J30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -906,7 +894,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -951,7 +939,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -983,12 +971,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>347328</v>
+        <v>277104</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -999,17 +987,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F13" s="5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1036,13 +1024,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1059,7 +1047,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>35112</v>
+        <v>7022</v>
       </c>
       <c r="G16" s="18">
         <v>877803</v>
@@ -1093,16 +1081,16 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="F18" s="18">
         <v>35112</v>
@@ -1116,16 +1104,16 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F19" s="18">
         <v>35112</v>
@@ -1139,22 +1127,22 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F20" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G20" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1162,22 +1150,22 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F21" s="18">
-        <v>7022</v>
+        <v>36341</v>
       </c>
       <c r="G21" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1185,19 +1173,19 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F22" s="18">
-        <v>19382</v>
+        <v>36341</v>
       </c>
       <c r="G22" s="18">
         <v>908526</v>
@@ -1208,16 +1196,16 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D23" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>21</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="F23" s="18">
         <v>36341</v>
@@ -1230,102 +1218,56 @@
       <c r="J23" s="20"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B24" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G24" s="18">
+      <c r="B24" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="24">
+        <v>19382</v>
+      </c>
+      <c r="G24" s="24">
         <v>908526</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B25" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G25" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B26" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="24">
-        <v>36341</v>
-      </c>
-      <c r="G26" s="24">
-        <v>908526</v>
-      </c>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="26"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="32"/>
-      <c r="H31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="32"/>
-      <c r="H32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="26"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="32"/>
+      <c r="H29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="32"/>
+      <c r="H30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H29:J29"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
